--- a/author0.xlsx
+++ b/author0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="23310" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics (2)" sheetId="7" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="247">
   <si>
     <t>MM</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Cofirst</t>
+  </si>
+  <si>
+    <t>Read Order</t>
   </si>
   <si>
     <t>UC Berkeley</t>
@@ -1918,12 +1921,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P217"/>
+  <dimension ref="A1:Q217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O161" sqref="O161"/>
+      <selection pane="bottomLeft" activeCell="Q81" sqref="Q81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1936,7 +1939,7 @@
     <col min="14" max="14" width="12.65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1985,13 +1988,16 @@
       <c r="P1" t="s">
         <v>11</v>
       </c>
+      <c r="Q1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" spans="12:13">
       <c r="L2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="6:13">
@@ -2005,16 +2011,16 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" t="s">
         <v>14</v>
       </c>
-      <c r="L3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="6:13">
+    </row>
+    <row r="4" spans="6:17">
       <c r="F4">
         <v>1</v>
       </c>
@@ -2025,13 +2031,16 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M4" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="6:13">
@@ -2048,13 +2057,13 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="6:13">
@@ -2068,13 +2077,13 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="6:13">
@@ -2088,13 +2097,13 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="6:13">
@@ -2108,13 +2117,13 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="6:13">
@@ -2128,13 +2137,13 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="6:13">
@@ -2148,13 +2157,13 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="6:13">
@@ -2168,13 +2177,13 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="6:13">
@@ -2191,13 +2200,13 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="6:13">
@@ -2211,13 +2220,13 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:15">
@@ -2240,19 +2249,19 @@
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>2</v>
       </c>
       <c r="O14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="6:13">
@@ -2266,13 +2275,13 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="6:13">
@@ -2286,13 +2295,13 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="6:13">
@@ -2309,13 +2318,13 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="6:13">
@@ -2329,13 +2338,13 @@
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="6:13">
@@ -2349,13 +2358,13 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="6:13">
@@ -2372,13 +2381,13 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="6:13">
@@ -2395,13 +2404,13 @@
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="6:13">
@@ -2415,13 +2424,13 @@
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="6:13">
@@ -2435,13 +2444,13 @@
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="6:13">
@@ -2458,13 +2467,13 @@
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="6:13">
@@ -2478,13 +2487,13 @@
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="6:13">
@@ -2498,13 +2507,13 @@
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="6:13">
@@ -2518,13 +2527,13 @@
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="6:13">
@@ -2541,13 +2550,13 @@
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="6:13">
@@ -2561,13 +2570,13 @@
         <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="6:13">
@@ -2581,13 +2590,13 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="6:13">
@@ -2604,13 +2613,13 @@
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="4:16">
@@ -2630,19 +2639,19 @@
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N32">
         <v>3</v>
       </c>
       <c r="P32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="6:13">
@@ -2656,13 +2665,13 @@
         <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="6:13">
@@ -2676,13 +2685,13 @@
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="6:13">
@@ -2696,13 +2705,13 @@
         <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="6:13">
@@ -2716,13 +2725,13 @@
         <v>1</v>
       </c>
       <c r="K36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="6:13">
@@ -2736,13 +2745,13 @@
         <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="6:13">
@@ -2756,13 +2765,13 @@
         <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="6:13">
@@ -2779,13 +2788,13 @@
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="6:13">
@@ -2799,13 +2808,13 @@
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="6:13">
@@ -2819,13 +2828,13 @@
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="6:13">
@@ -2839,13 +2848,13 @@
         <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="6:13">
@@ -2859,13 +2868,13 @@
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="6:13">
@@ -2882,13 +2891,13 @@
         <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M44" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="6:13">
@@ -2902,13 +2911,13 @@
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="6:13">
@@ -2922,13 +2931,13 @@
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="6:13">
@@ -2942,13 +2951,13 @@
         <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="6:13">
@@ -2965,13 +2974,13 @@
         <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="6:13">
@@ -2988,13 +2997,13 @@
         <v>1</v>
       </c>
       <c r="K49" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="6:13">
@@ -3008,13 +3017,13 @@
         <v>1</v>
       </c>
       <c r="K50" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="6:13">
@@ -3028,13 +3037,13 @@
         <v>1</v>
       </c>
       <c r="K51" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="6:13">
@@ -3051,24 +3060,24 @@
         <v>1</v>
       </c>
       <c r="K52" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="11:13">
       <c r="K53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="6:13">
@@ -3085,13 +3094,13 @@
         <v>1</v>
       </c>
       <c r="K54" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="4:14">
@@ -3105,13 +3114,13 @@
         <v>1</v>
       </c>
       <c r="K55" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3125,13 +3134,13 @@
         <v>1</v>
       </c>
       <c r="K58" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M58" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="6:13">
@@ -3142,13 +3151,13 @@
         <v>1</v>
       </c>
       <c r="K59" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M59" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="6:13">
@@ -3159,13 +3168,13 @@
         <v>1</v>
       </c>
       <c r="K60" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="6:13">
@@ -3176,13 +3185,13 @@
         <v>1</v>
       </c>
       <c r="K61" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M61" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="6:13">
@@ -3193,13 +3202,13 @@
         <v>1</v>
       </c>
       <c r="K62" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M62" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="6:13">
@@ -3210,13 +3219,13 @@
         <v>1</v>
       </c>
       <c r="K63" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M63" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="6:13">
@@ -3227,13 +3236,13 @@
         <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M64" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="6:13">
@@ -3244,13 +3253,13 @@
         <v>1</v>
       </c>
       <c r="K65" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M65" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="6:13">
@@ -3261,13 +3270,13 @@
         <v>1</v>
       </c>
       <c r="K66" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M66" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="6:13">
@@ -3278,13 +3287,13 @@
         <v>1</v>
       </c>
       <c r="K67" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M67" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="6:13">
@@ -3295,13 +3304,13 @@
         <v>1</v>
       </c>
       <c r="K68" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M68" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="6:13">
@@ -3312,13 +3321,13 @@
         <v>1</v>
       </c>
       <c r="K69" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M69" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="6:13">
@@ -3329,13 +3338,13 @@
         <v>1</v>
       </c>
       <c r="K70" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M70" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="6:13">
@@ -3346,13 +3355,13 @@
         <v>1</v>
       </c>
       <c r="K71" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M71" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="6:13">
@@ -3363,13 +3372,13 @@
         <v>1</v>
       </c>
       <c r="K72" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M72" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="6:13">
@@ -3380,13 +3389,13 @@
         <v>1</v>
       </c>
       <c r="K73" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M73" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="6:13">
@@ -3397,13 +3406,13 @@
         <v>1</v>
       </c>
       <c r="K74" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M74" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="6:13">
@@ -3414,13 +3423,13 @@
         <v>1</v>
       </c>
       <c r="K75" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M75" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="6:13">
@@ -3431,16 +3440,16 @@
         <v>1</v>
       </c>
       <c r="K76" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M76" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="77" customFormat="1" spans="1:15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" customFormat="1" spans="1:17">
       <c r="A77">
         <v>1</v>
       </c>
@@ -3451,13 +3460,16 @@
         <v>1</v>
       </c>
       <c r="K77" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M77" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O77" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="Q77">
+        <v>5</v>
       </c>
     </row>
     <row r="78" customFormat="1" spans="6:13">
@@ -3468,10 +3480,10 @@
         <v>1</v>
       </c>
       <c r="K78" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M78" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" customFormat="1" spans="6:13">
@@ -3482,13 +3494,13 @@
         <v>1</v>
       </c>
       <c r="K79" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M79" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="80" customFormat="1" spans="6:13">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" customFormat="1" spans="6:17">
       <c r="F80">
         <v>1</v>
       </c>
@@ -3496,10 +3508,13 @@
         <v>1</v>
       </c>
       <c r="K80" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M80" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="Q80">
+        <v>6</v>
       </c>
     </row>
     <row r="81" customFormat="1" spans="6:13">
@@ -3510,10 +3525,10 @@
         <v>1</v>
       </c>
       <c r="K81" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M81" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="6:13">
@@ -3524,10 +3539,10 @@
         <v>1</v>
       </c>
       <c r="K82" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M82" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="6:13">
@@ -3538,13 +3553,13 @@
         <v>1</v>
       </c>
       <c r="K85" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M85" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" spans="6:13">
@@ -3555,13 +3570,13 @@
         <v>1</v>
       </c>
       <c r="K86" t="s">
+        <v>112</v>
+      </c>
+      <c r="L86" t="s">
+        <v>13</v>
+      </c>
+      <c r="M86" t="s">
         <v>111</v>
-      </c>
-      <c r="L86" t="s">
-        <v>12</v>
-      </c>
-      <c r="M86" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="87" customFormat="1" spans="6:13">
@@ -3572,13 +3587,13 @@
         <v>1</v>
       </c>
       <c r="K87" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M87" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88" customFormat="1" spans="6:13">
@@ -3589,13 +3604,13 @@
         <v>1</v>
       </c>
       <c r="K88" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M88" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" customFormat="1" spans="6:13">
@@ -3606,13 +3621,13 @@
         <v>1</v>
       </c>
       <c r="K89" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M89" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="90" customFormat="1" spans="6:13">
@@ -3623,13 +3638,13 @@
         <v>1</v>
       </c>
       <c r="K90" t="s">
+        <v>117</v>
+      </c>
+      <c r="L90" t="s">
+        <v>13</v>
+      </c>
+      <c r="M90" t="s">
         <v>116</v>
-      </c>
-      <c r="L90" t="s">
-        <v>12</v>
-      </c>
-      <c r="M90" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="91" customFormat="1" spans="6:13">
@@ -3640,13 +3655,13 @@
         <v>1</v>
       </c>
       <c r="K91" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M91" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="92" customFormat="1" spans="6:13">
@@ -3657,13 +3672,13 @@
         <v>1</v>
       </c>
       <c r="K92" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M92" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93" spans="6:13">
@@ -3674,13 +3689,13 @@
         <v>1</v>
       </c>
       <c r="K93" t="s">
+        <v>121</v>
+      </c>
+      <c r="L93" t="s">
+        <v>13</v>
+      </c>
+      <c r="M93" t="s">
         <v>120</v>
-      </c>
-      <c r="L93" t="s">
-        <v>12</v>
-      </c>
-      <c r="M93" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="94" customFormat="1" spans="6:13">
@@ -3691,13 +3706,13 @@
         <v>1</v>
       </c>
       <c r="K94" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M94" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95" customFormat="1" spans="6:13">
@@ -3717,13 +3732,13 @@
         <v>1</v>
       </c>
       <c r="K95" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M95" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="96" customFormat="1" spans="6:13">
@@ -3743,13 +3758,13 @@
         <v>1</v>
       </c>
       <c r="K96" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M96" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97" customFormat="1" spans="6:13">
@@ -3769,13 +3784,13 @@
         <v>1</v>
       </c>
       <c r="K97" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M97" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98" customFormat="1" spans="6:13">
@@ -3795,13 +3810,13 @@
         <v>1</v>
       </c>
       <c r="K98" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="99" customFormat="1" spans="6:13">
@@ -3821,10 +3836,10 @@
         <v>1</v>
       </c>
       <c r="K99" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M99" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100" customFormat="1" spans="6:13">
@@ -3844,18 +3859,18 @@
         <v>1</v>
       </c>
       <c r="K100" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M100" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="101" customFormat="1" spans="12:12">
       <c r="L101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" customFormat="1" spans="6:13">
@@ -3866,13 +3881,13 @@
         <v>1</v>
       </c>
       <c r="K102" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M102" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103" customFormat="1" spans="6:13">
@@ -3883,13 +3898,13 @@
         <v>1</v>
       </c>
       <c r="K103" t="s">
+        <v>131</v>
+      </c>
+      <c r="L103" t="s">
+        <v>13</v>
+      </c>
+      <c r="M103" t="s">
         <v>130</v>
-      </c>
-      <c r="L103" t="s">
-        <v>12</v>
-      </c>
-      <c r="M103" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="104" customFormat="1" spans="6:13">
@@ -3900,13 +3915,13 @@
         <v>1</v>
       </c>
       <c r="K104" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M104" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="105" customFormat="1" spans="6:13">
@@ -3917,13 +3932,13 @@
         <v>1</v>
       </c>
       <c r="K105" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M105" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="106" customFormat="1" spans="6:13">
@@ -3934,16 +3949,16 @@
         <v>1</v>
       </c>
       <c r="K106" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M106" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="107" customFormat="1" spans="6:13">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="107" customFormat="1" spans="6:17">
       <c r="F107">
         <v>1</v>
       </c>
@@ -3951,13 +3966,16 @@
         <v>1</v>
       </c>
       <c r="K107" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M107" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="Q107">
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="6:13">
@@ -3968,10 +3986,10 @@
         <v>1</v>
       </c>
       <c r="K108" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M108" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="110" customFormat="1" spans="6:13">
@@ -3982,13 +4000,13 @@
         <v>1</v>
       </c>
       <c r="K110" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M110" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="111" customFormat="1" spans="6:13">
@@ -3999,13 +4017,13 @@
         <v>1</v>
       </c>
       <c r="K111" t="s">
+        <v>139</v>
+      </c>
+      <c r="L111" t="s">
+        <v>13</v>
+      </c>
+      <c r="M111" t="s">
         <v>138</v>
-      </c>
-      <c r="L111" t="s">
-        <v>12</v>
-      </c>
-      <c r="M111" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="112" customFormat="1" spans="6:13">
@@ -4016,13 +4034,13 @@
         <v>1</v>
       </c>
       <c r="K112" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M112" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="113" customFormat="1" spans="6:13">
@@ -4033,13 +4051,13 @@
         <v>1</v>
       </c>
       <c r="K113" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M113" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="114" customFormat="1" spans="6:13">
@@ -4059,13 +4077,13 @@
         <v>1</v>
       </c>
       <c r="K114" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L114" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M114" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115" customFormat="1" spans="6:13">
@@ -4076,10 +4094,10 @@
         <v>1</v>
       </c>
       <c r="K115" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M115" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="116" customFormat="1"/>
@@ -4091,13 +4109,13 @@
         <v>1</v>
       </c>
       <c r="K117" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M117" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="118" spans="6:13">
@@ -4108,13 +4126,13 @@
         <v>1</v>
       </c>
       <c r="K118" t="s">
+        <v>146</v>
+      </c>
+      <c r="L118" t="s">
+        <v>13</v>
+      </c>
+      <c r="M118" t="s">
         <v>145</v>
-      </c>
-      <c r="L118" t="s">
-        <v>12</v>
-      </c>
-      <c r="M118" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="119" spans="6:13">
@@ -4125,13 +4143,13 @@
         <v>1</v>
       </c>
       <c r="K119" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M119" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="120" spans="6:13">
@@ -4142,13 +4160,13 @@
         <v>1</v>
       </c>
       <c r="K120" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L120" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M120" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="121" spans="6:13">
@@ -4159,13 +4177,13 @@
         <v>1</v>
       </c>
       <c r="K121" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M121" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122" spans="6:13">
@@ -4173,13 +4191,13 @@
         <v>1</v>
       </c>
       <c r="K122" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M122" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="123" spans="6:13">
@@ -4190,13 +4208,13 @@
         <v>1</v>
       </c>
       <c r="K123" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L123" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M123" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="124" spans="6:13">
@@ -4207,16 +4225,16 @@
         <v>1</v>
       </c>
       <c r="K124" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L124" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M124" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="125" spans="6:13">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="125" spans="6:17">
       <c r="F125">
         <v>1</v>
       </c>
@@ -4224,13 +4242,16 @@
         <v>1</v>
       </c>
       <c r="K125" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L125" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M125" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="Q125">
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="6:13">
@@ -4241,13 +4262,13 @@
         <v>1</v>
       </c>
       <c r="K126" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M126" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="127" spans="6:13">
@@ -4258,13 +4279,13 @@
         <v>1</v>
       </c>
       <c r="K127" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L127" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M127" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="128" spans="6:13">
@@ -4275,13 +4296,13 @@
         <v>1</v>
       </c>
       <c r="K128" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L128" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M128" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="6:13">
@@ -4292,13 +4313,13 @@
         <v>1</v>
       </c>
       <c r="K129" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M129" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131" spans="6:13">
@@ -4309,13 +4330,13 @@
         <v>1</v>
       </c>
       <c r="K131" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M131" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="132" spans="6:13">
@@ -4326,13 +4347,13 @@
         <v>1</v>
       </c>
       <c r="K132" t="s">
+        <v>160</v>
+      </c>
+      <c r="L132" t="s">
+        <v>13</v>
+      </c>
+      <c r="M132" t="s">
         <v>159</v>
-      </c>
-      <c r="L132" t="s">
-        <v>12</v>
-      </c>
-      <c r="M132" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="133" spans="6:13">
@@ -4343,16 +4364,16 @@
         <v>1</v>
       </c>
       <c r="K133" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L133" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M133" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="134" spans="6:13">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="134" spans="6:17">
       <c r="F134">
         <v>1</v>
       </c>
@@ -4360,13 +4381,16 @@
         <v>1</v>
       </c>
       <c r="K134" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M134" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="Q134">
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="6:13">
@@ -4377,13 +4401,13 @@
         <v>1</v>
       </c>
       <c r="K135" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L135" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M135" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="136" spans="6:13">
@@ -4394,18 +4418,18 @@
         <v>1</v>
       </c>
       <c r="K136" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M136" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="137" spans="12:12">
       <c r="L137" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138" spans="6:13">
@@ -4416,13 +4440,13 @@
         <v>1</v>
       </c>
       <c r="K138" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L138" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M138" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="139" spans="6:13">
@@ -4433,13 +4457,13 @@
         <v>1</v>
       </c>
       <c r="K139" t="s">
+        <v>167</v>
+      </c>
+      <c r="L139" t="s">
+        <v>13</v>
+      </c>
+      <c r="M139" t="s">
         <v>166</v>
-      </c>
-      <c r="L139" t="s">
-        <v>12</v>
-      </c>
-      <c r="M139" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="140" spans="6:13">
@@ -4450,13 +4474,13 @@
         <v>1</v>
       </c>
       <c r="K140" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M140" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="141" spans="6:13">
@@ -4467,13 +4491,13 @@
         <v>1</v>
       </c>
       <c r="K141" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L141" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M141" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="142" spans="6:13">
@@ -4484,13 +4508,13 @@
         <v>1</v>
       </c>
       <c r="K142" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L142" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M142" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="143" spans="6:13">
@@ -4501,13 +4525,13 @@
         <v>1</v>
       </c>
       <c r="K143" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M143" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="144" spans="6:13">
@@ -4518,18 +4542,18 @@
         <v>1</v>
       </c>
       <c r="K144" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L144" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M144" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="145" spans="12:12">
       <c r="L145" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="6:13">
@@ -4540,13 +4564,13 @@
         <v>1</v>
       </c>
       <c r="K146" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L146" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M146" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="147" spans="6:13">
@@ -4557,13 +4581,13 @@
         <v>1</v>
       </c>
       <c r="K147" t="s">
+        <v>175</v>
+      </c>
+      <c r="L147" t="s">
+        <v>13</v>
+      </c>
+      <c r="M147" t="s">
         <v>174</v>
-      </c>
-      <c r="L147" t="s">
-        <v>12</v>
-      </c>
-      <c r="M147" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="148" spans="6:13">
@@ -4574,13 +4598,13 @@
         <v>1</v>
       </c>
       <c r="K148" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L148" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M148" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="149" spans="6:13">
@@ -4591,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="K149" t="s">
+        <v>178</v>
+      </c>
+      <c r="L149" t="s">
+        <v>13</v>
+      </c>
+      <c r="M149" t="s">
         <v>177</v>
-      </c>
-      <c r="L149" t="s">
-        <v>12</v>
-      </c>
-      <c r="M149" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="150" customFormat="1" spans="6:13">
@@ -4617,13 +4641,13 @@
         <v>1</v>
       </c>
       <c r="K150" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L150" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M150" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="151" customFormat="1" spans="6:13">
@@ -4643,13 +4667,13 @@
         <v>1</v>
       </c>
       <c r="K151" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L151" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M151" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="152" customFormat="1" spans="6:13">
@@ -4669,13 +4693,13 @@
         <v>1</v>
       </c>
       <c r="K152" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L152" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M152" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="153" spans="6:13">
@@ -4695,13 +4719,13 @@
         <v>1</v>
       </c>
       <c r="K153" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L153" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M153" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="154" customFormat="1" spans="3:13">
@@ -4709,13 +4733,13 @@
         <v>1</v>
       </c>
       <c r="K154" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L154" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M154" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="155" customFormat="1" spans="6:13">
@@ -4735,13 +4759,13 @@
         <v>1</v>
       </c>
       <c r="K155" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L155" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M155" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="156" customFormat="1" spans="6:13">
@@ -4761,13 +4785,13 @@
         <v>1</v>
       </c>
       <c r="K156" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L156" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M156" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="157" customFormat="1" spans="6:13">
@@ -4787,18 +4811,18 @@
         <v>1</v>
       </c>
       <c r="K157" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L157" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M157" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="158" customFormat="1" spans="12:12">
       <c r="L158" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="159" spans="6:13">
@@ -4809,13 +4833,13 @@
         <v>1</v>
       </c>
       <c r="K159" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L159" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M159" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="160" spans="6:13">
@@ -4826,13 +4850,13 @@
         <v>1</v>
       </c>
       <c r="K160" t="s">
+        <v>189</v>
+      </c>
+      <c r="L160" t="s">
+        <v>13</v>
+      </c>
+      <c r="M160" t="s">
         <v>188</v>
-      </c>
-      <c r="L160" t="s">
-        <v>12</v>
-      </c>
-      <c r="M160" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="161" spans="2:14">
@@ -4843,13 +4867,13 @@
         <v>1</v>
       </c>
       <c r="K161" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L161" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M161" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N161">
         <v>1</v>
@@ -4863,18 +4887,18 @@
         <v>1</v>
       </c>
       <c r="K162" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L162" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M162" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="163" spans="12:12">
       <c r="L163" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164" spans="7:13">
@@ -4882,13 +4906,13 @@
         <v>1</v>
       </c>
       <c r="K164" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L164" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M164" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="165" spans="6:13">
@@ -4896,18 +4920,18 @@
         <v>1</v>
       </c>
       <c r="K165" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L165" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M165" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="166" spans="12:12">
       <c r="L166" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="167" spans="6:13">
@@ -4918,13 +4942,13 @@
         <v>1</v>
       </c>
       <c r="K167" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L167" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M167" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="168" spans="6:13">
@@ -4935,13 +4959,13 @@
         <v>1</v>
       </c>
       <c r="K168" t="s">
+        <v>198</v>
+      </c>
+      <c r="L168" t="s">
+        <v>13</v>
+      </c>
+      <c r="M168" t="s">
         <v>197</v>
-      </c>
-      <c r="L168" t="s">
-        <v>12</v>
-      </c>
-      <c r="M168" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="169" spans="6:13">
@@ -4952,13 +4976,13 @@
         <v>1</v>
       </c>
       <c r="K169" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L169" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M169" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="170" spans="6:13">
@@ -4969,13 +4993,13 @@
         <v>1</v>
       </c>
       <c r="K170" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L170" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M170" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="171" spans="6:13">
@@ -4986,13 +5010,13 @@
         <v>1</v>
       </c>
       <c r="K171" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L171" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M171" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="172" spans="6:13">
@@ -5003,13 +5027,13 @@
         <v>1</v>
       </c>
       <c r="K172" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L172" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M172" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="173" spans="6:13">
@@ -5020,13 +5044,13 @@
         <v>1</v>
       </c>
       <c r="K173" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L173" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M173" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="174" spans="6:13">
@@ -5037,10 +5061,10 @@
         <v>1</v>
       </c>
       <c r="K174" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M174" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="175" spans="6:13">
@@ -5051,10 +5075,10 @@
         <v>1</v>
       </c>
       <c r="K175" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M175" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="176" spans="6:13">
@@ -5065,15 +5089,15 @@
         <v>1</v>
       </c>
       <c r="K176" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M176" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="177" spans="13:13">
       <c r="M177" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="178" spans="6:13">
@@ -5084,10 +5108,10 @@
         <v>1</v>
       </c>
       <c r="K178" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M178" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="179" customFormat="1" spans="6:13">
@@ -5098,10 +5122,10 @@
         <v>1</v>
       </c>
       <c r="K179" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M179" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="180" customFormat="1" spans="6:13">
@@ -5112,10 +5136,10 @@
         <v>1</v>
       </c>
       <c r="K180" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M180" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="181" customFormat="1" spans="6:13">
@@ -5126,10 +5150,10 @@
         <v>1</v>
       </c>
       <c r="K181" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M181" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="182" customFormat="1" spans="6:13">
@@ -5140,10 +5164,10 @@
         <v>1</v>
       </c>
       <c r="K182" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M182" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="183" customFormat="1" spans="6:13">
@@ -5154,10 +5178,10 @@
         <v>1</v>
       </c>
       <c r="K183" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M183" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="184" customFormat="1" spans="6:13">
@@ -5168,10 +5192,10 @@
         <v>1</v>
       </c>
       <c r="K184" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M184" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="185" customFormat="1" spans="6:13">
@@ -5182,10 +5206,10 @@
         <v>1</v>
       </c>
       <c r="K185" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M185" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="186" customFormat="1" spans="6:13">
@@ -5196,10 +5220,10 @@
         <v>1</v>
       </c>
       <c r="K186" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M186" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="187" customFormat="1" spans="6:13">
@@ -5210,10 +5234,10 @@
         <v>1</v>
       </c>
       <c r="K187" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M187" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="189" customFormat="1" spans="6:13">
@@ -5233,10 +5257,10 @@
         <v>1</v>
       </c>
       <c r="K189" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M189" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="191" customFormat="1" spans="6:13">
@@ -5256,10 +5280,10 @@
         <v>1</v>
       </c>
       <c r="K191" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M191" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="193" spans="6:13">
@@ -5279,10 +5303,10 @@
         <v>1</v>
       </c>
       <c r="K193" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M193" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="195" spans="8:13">
@@ -5296,10 +5320,10 @@
         <v>1</v>
       </c>
       <c r="K195" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M195" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="197" spans="6:13">
@@ -5319,10 +5343,10 @@
         <v>1</v>
       </c>
       <c r="K197" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M197" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="198" spans="5:14">
@@ -5345,10 +5369,10 @@
         <v>1</v>
       </c>
       <c r="K198" t="s">
+        <v>227</v>
+      </c>
+      <c r="M198" t="s">
         <v>226</v>
-      </c>
-      <c r="M198" t="s">
-        <v>225</v>
       </c>
       <c r="N198">
         <v>1</v>
@@ -5371,10 +5395,10 @@
         <v>1</v>
       </c>
       <c r="K199" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M199" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="200" spans="6:13">
@@ -5394,10 +5418,10 @@
         <v>1</v>
       </c>
       <c r="K200" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M200" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="201" spans="6:13">
@@ -5417,10 +5441,10 @@
         <v>1</v>
       </c>
       <c r="K201" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M201" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="202" spans="6:13">
@@ -5440,13 +5464,13 @@
         <v>1</v>
       </c>
       <c r="K202" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L202" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M202" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="204" spans="5:15">
@@ -5454,16 +5478,16 @@
         <v>1</v>
       </c>
       <c r="K204" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M204" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N204">
         <v>2</v>
       </c>
       <c r="O204" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="206" spans="9:11">
@@ -5471,7 +5495,7 @@
         <v>1</v>
       </c>
       <c r="K206" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="208" spans="7:13">
@@ -5479,13 +5503,13 @@
         <v>1</v>
       </c>
       <c r="K208" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L208" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M208" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="209" spans="7:13">
@@ -5493,13 +5517,13 @@
         <v>1</v>
       </c>
       <c r="K209" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L209" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M209" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="210" spans="7:13">
@@ -5507,13 +5531,13 @@
         <v>1</v>
       </c>
       <c r="K210" t="s">
+        <v>240</v>
+      </c>
+      <c r="L210" t="s">
+        <v>236</v>
+      </c>
+      <c r="M210" t="s">
         <v>239</v>
-      </c>
-      <c r="L210" t="s">
-        <v>235</v>
-      </c>
-      <c r="M210" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="211" spans="7:12">
@@ -5521,10 +5545,10 @@
         <v>1</v>
       </c>
       <c r="K211" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L211" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="212" spans="7:12">
@@ -5532,10 +5556,10 @@
         <v>1</v>
       </c>
       <c r="K212" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L212" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="213" spans="7:12">
@@ -5543,28 +5567,28 @@
         <v>1</v>
       </c>
       <c r="K213" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L213" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="214" spans="11:12">
       <c r="K214" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L214" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="216" spans="11:11">
       <c r="K216" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="217" spans="11:11">
       <c r="K217" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/author0.xlsx
+++ b/author0.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="252">
   <si>
     <t>MM</t>
   </si>
@@ -44,7 +44,19 @@
     <t>TL</t>
   </si>
   <si>
-    <t>sent</t>
+    <t>sentMM</t>
+  </si>
+  <si>
+    <t>sentMD</t>
+  </si>
+  <si>
+    <t>sentNA</t>
+  </si>
+  <si>
+    <t>sentHD</t>
+  </si>
+  <si>
+    <t>sentTL</t>
   </si>
   <si>
     <t>Author</t>
@@ -66,6 +78,9 @@
   </si>
   <si>
     <t>Read Order</t>
+  </si>
+  <si>
+    <t>Reply Order</t>
   </si>
   <si>
     <t>UC Berkeley</t>
@@ -1921,12 +1936,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q217"/>
+  <dimension ref="A1:R217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Q81" sqref="Q81"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1939,7 +1954,7 @@
     <col min="14" max="14" width="12.65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1959,45 +1974,48 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="12:13">
       <c r="L2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="6:13">
@@ -2011,13 +2029,13 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="6:17">
@@ -2031,13 +2049,13 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -2057,13 +2075,13 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="6:13">
@@ -2077,13 +2095,13 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="6:13">
@@ -2097,13 +2115,13 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="6:13">
@@ -2117,13 +2135,13 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="6:13">
@@ -2137,13 +2155,13 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="6:13">
@@ -2157,13 +2175,13 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="L10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="6:13">
@@ -2177,13 +2195,13 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="6:13">
@@ -2200,13 +2218,13 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="L12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="6:13">
@@ -2220,13 +2238,13 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="2:15">
@@ -2249,19 +2267,19 @@
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="L14" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N14">
         <v>2</v>
       </c>
       <c r="O14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="6:13">
@@ -2275,13 +2293,13 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M15" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="6:13">
@@ -2295,13 +2313,13 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="L16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="6:13">
@@ -2318,13 +2336,13 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M17" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="6:13">
@@ -2338,13 +2356,13 @@
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L18" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M18" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="6:13">
@@ -2358,13 +2376,13 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M19" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="6:13">
@@ -2381,13 +2399,13 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L20" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M20" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="6:13">
@@ -2404,13 +2422,13 @@
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="L21" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M21" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="6:13">
@@ -2424,13 +2442,13 @@
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L22" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M22" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="6:13">
@@ -2444,13 +2462,13 @@
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="L23" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M23" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="6:13">
@@ -2467,13 +2485,13 @@
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L24" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M24" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="6:13">
@@ -2487,13 +2505,13 @@
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L25" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M25" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="6:13">
@@ -2507,13 +2525,13 @@
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L26" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M26" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="6:13">
@@ -2527,13 +2545,13 @@
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L27" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="6:13">
@@ -2550,13 +2568,13 @@
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="L28" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M28" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="6:13">
@@ -2570,13 +2588,13 @@
         <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L29" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M29" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="6:13">
@@ -2590,13 +2608,13 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="L30" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M30" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="6:13">
@@ -2613,13 +2631,13 @@
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L31" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M31" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="4:16">
@@ -2639,19 +2657,19 @@
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L32" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M32" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="N32">
         <v>3</v>
       </c>
       <c r="P32" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="6:13">
@@ -2665,13 +2683,13 @@
         <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L33" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M33" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="6:13">
@@ -2685,13 +2703,13 @@
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L34" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="6:13">
@@ -2705,13 +2723,13 @@
         <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="L35" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M35" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="6:13">
@@ -2725,13 +2743,13 @@
         <v>1</v>
       </c>
       <c r="K36" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L36" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M36" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="6:13">
@@ -2745,13 +2763,13 @@
         <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L37" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M37" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="6:13">
@@ -2765,13 +2783,13 @@
         <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="L38" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M38" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="6:13">
@@ -2788,13 +2806,13 @@
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="L39" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M39" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="6:13">
@@ -2808,13 +2826,13 @@
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="L40" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M40" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="6:13">
@@ -2828,13 +2846,13 @@
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="L41" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M41" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="6:13">
@@ -2848,13 +2866,13 @@
         <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="L42" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M42" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="6:13">
@@ -2868,13 +2886,13 @@
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="L43" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M43" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="6:13">
@@ -2891,13 +2909,13 @@
         <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="L44" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M44" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="6:13">
@@ -2911,13 +2929,13 @@
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L45" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M45" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="6:13">
@@ -2931,13 +2949,13 @@
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="L46" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M46" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="6:13">
@@ -2951,13 +2969,13 @@
         <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="L47" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M47" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="6:13">
@@ -2974,13 +2992,13 @@
         <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L48" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M48" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="6:13">
@@ -2997,13 +3015,13 @@
         <v>1</v>
       </c>
       <c r="K49" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L49" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M49" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="6:13">
@@ -3017,13 +3035,13 @@
         <v>1</v>
       </c>
       <c r="K50" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L50" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M50" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="6:13">
@@ -3037,13 +3055,13 @@
         <v>1</v>
       </c>
       <c r="K51" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L51" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M51" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="6:13">
@@ -3060,24 +3078,24 @@
         <v>1</v>
       </c>
       <c r="K52" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L52" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M52" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="11:13">
       <c r="K53" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L53" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M53" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="6:13">
@@ -3094,13 +3112,13 @@
         <v>1</v>
       </c>
       <c r="K54" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L54" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M54" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="4:14">
@@ -3114,13 +3132,13 @@
         <v>1</v>
       </c>
       <c r="K55" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L55" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M55" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3134,13 +3152,13 @@
         <v>1</v>
       </c>
       <c r="K58" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L58" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M58" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="6:13">
@@ -3151,13 +3169,13 @@
         <v>1</v>
       </c>
       <c r="K59" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L59" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M59" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="6:13">
@@ -3168,13 +3186,13 @@
         <v>1</v>
       </c>
       <c r="K60" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L60" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M60" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="6:13">
@@ -3185,13 +3203,13 @@
         <v>1</v>
       </c>
       <c r="K61" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L61" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M61" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="6:13">
@@ -3202,13 +3220,13 @@
         <v>1</v>
       </c>
       <c r="K62" t="s">
+        <v>92</v>
+      </c>
+      <c r="L62" t="s">
+        <v>18</v>
+      </c>
+      <c r="M62" t="s">
         <v>87</v>
-      </c>
-      <c r="L62" t="s">
-        <v>13</v>
-      </c>
-      <c r="M62" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="63" spans="6:13">
@@ -3219,13 +3237,13 @@
         <v>1</v>
       </c>
       <c r="K63" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L63" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M63" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="6:13">
@@ -3236,13 +3254,13 @@
         <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L64" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M64" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="6:13">
@@ -3253,13 +3271,13 @@
         <v>1</v>
       </c>
       <c r="K65" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L65" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M65" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="6:13">
@@ -3270,13 +3288,13 @@
         <v>1</v>
       </c>
       <c r="K66" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="L66" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M66" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="6:13">
@@ -3287,13 +3305,13 @@
         <v>1</v>
       </c>
       <c r="K67" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L67" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M67" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="6:13">
@@ -3304,13 +3322,13 @@
         <v>1</v>
       </c>
       <c r="K68" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="L68" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M68" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="6:13">
@@ -3321,13 +3339,13 @@
         <v>1</v>
       </c>
       <c r="K69" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="L69" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M69" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="6:13">
@@ -3338,13 +3356,13 @@
         <v>1</v>
       </c>
       <c r="K70" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="L70" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M70" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="6:13">
@@ -3355,13 +3373,13 @@
         <v>1</v>
       </c>
       <c r="K71" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="L71" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M71" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="6:13">
@@ -3372,13 +3390,13 @@
         <v>1</v>
       </c>
       <c r="K72" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L72" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M72" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="6:13">
@@ -3389,13 +3407,13 @@
         <v>1</v>
       </c>
       <c r="K73" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="L73" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M73" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="6:13">
@@ -3406,13 +3424,13 @@
         <v>1</v>
       </c>
       <c r="K74" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="L74" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M74" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="6:13">
@@ -3423,13 +3441,13 @@
         <v>1</v>
       </c>
       <c r="K75" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="L75" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M75" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="6:13">
@@ -3440,13 +3458,13 @@
         <v>1</v>
       </c>
       <c r="K76" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="L76" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M76" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" customFormat="1" spans="1:17">
@@ -3460,13 +3478,13 @@
         <v>1</v>
       </c>
       <c r="K77" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M77" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O77" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -3480,10 +3498,10 @@
         <v>1</v>
       </c>
       <c r="K78" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="M78" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" customFormat="1" spans="6:13">
@@ -3494,10 +3512,10 @@
         <v>1</v>
       </c>
       <c r="K79" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="M79" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" customFormat="1" spans="6:17">
@@ -3508,10 +3526,10 @@
         <v>1</v>
       </c>
       <c r="K80" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="M80" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -3525,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="K81" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="M81" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="6:13">
@@ -3539,10 +3557,10 @@
         <v>1</v>
       </c>
       <c r="K82" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="M82" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="6:13">
@@ -3553,13 +3571,13 @@
         <v>1</v>
       </c>
       <c r="K85" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="L85" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M85" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="86" spans="6:13">
@@ -3570,13 +3588,13 @@
         <v>1</v>
       </c>
       <c r="K86" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="L86" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M86" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="87" customFormat="1" spans="6:13">
@@ -3587,13 +3605,13 @@
         <v>1</v>
       </c>
       <c r="K87" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L87" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M87" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="88" customFormat="1" spans="6:13">
@@ -3604,13 +3622,13 @@
         <v>1</v>
       </c>
       <c r="K88" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="L88" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M88" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="89" customFormat="1" spans="6:13">
@@ -3621,13 +3639,13 @@
         <v>1</v>
       </c>
       <c r="K89" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="L89" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M89" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" customFormat="1" spans="6:13">
@@ -3638,13 +3656,13 @@
         <v>1</v>
       </c>
       <c r="K90" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="L90" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M90" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91" customFormat="1" spans="6:13">
@@ -3655,13 +3673,13 @@
         <v>1</v>
       </c>
       <c r="K91" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="L91" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M91" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="92" customFormat="1" spans="6:13">
@@ -3672,13 +3690,13 @@
         <v>1</v>
       </c>
       <c r="K92" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="L92" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M92" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="93" spans="6:13">
@@ -3689,13 +3707,13 @@
         <v>1</v>
       </c>
       <c r="K93" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="L93" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M93" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94" customFormat="1" spans="6:13">
@@ -3706,13 +3724,13 @@
         <v>1</v>
       </c>
       <c r="K94" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="L94" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M94" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95" customFormat="1" spans="6:13">
@@ -3732,13 +3750,13 @@
         <v>1</v>
       </c>
       <c r="K95" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="L95" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M95" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="96" customFormat="1" spans="6:13">
@@ -3758,13 +3776,13 @@
         <v>1</v>
       </c>
       <c r="K96" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="L96" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M96" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="97" customFormat="1" spans="6:13">
@@ -3784,13 +3802,13 @@
         <v>1</v>
       </c>
       <c r="K97" t="s">
+        <v>130</v>
+      </c>
+      <c r="L97" t="s">
+        <v>18</v>
+      </c>
+      <c r="M97" t="s">
         <v>125</v>
-      </c>
-      <c r="L97" t="s">
-        <v>13</v>
-      </c>
-      <c r="M97" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="98" customFormat="1" spans="6:13">
@@ -3810,13 +3828,13 @@
         <v>1</v>
       </c>
       <c r="K98" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="L98" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M98" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="99" customFormat="1" spans="6:13">
@@ -3836,10 +3854,10 @@
         <v>1</v>
       </c>
       <c r="K99" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="M99" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="100" customFormat="1" spans="6:13">
@@ -3859,18 +3877,18 @@
         <v>1</v>
       </c>
       <c r="K100" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="L100" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M100" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="101" customFormat="1" spans="12:12">
       <c r="L101" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" customFormat="1" spans="6:13">
@@ -3881,13 +3899,13 @@
         <v>1</v>
       </c>
       <c r="K102" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="L102" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M102" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="103" customFormat="1" spans="6:13">
@@ -3898,13 +3916,13 @@
         <v>1</v>
       </c>
       <c r="K103" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="L103" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M103" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="104" customFormat="1" spans="6:13">
@@ -3915,13 +3933,13 @@
         <v>1</v>
       </c>
       <c r="K104" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="L104" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M104" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="105" customFormat="1" spans="6:13">
@@ -3932,13 +3950,13 @@
         <v>1</v>
       </c>
       <c r="K105" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L105" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M105" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="106" customFormat="1" spans="6:13">
@@ -3949,13 +3967,13 @@
         <v>1</v>
       </c>
       <c r="K106" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="L106" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M106" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="107" customFormat="1" spans="6:17">
@@ -3966,13 +3984,13 @@
         <v>1</v>
       </c>
       <c r="K107" t="s">
+        <v>140</v>
+      </c>
+      <c r="L107" t="s">
+        <v>18</v>
+      </c>
+      <c r="M107" t="s">
         <v>135</v>
-      </c>
-      <c r="L107" t="s">
-        <v>13</v>
-      </c>
-      <c r="M107" t="s">
-        <v>130</v>
       </c>
       <c r="Q107">
         <v>1</v>
@@ -3986,10 +4004,10 @@
         <v>1</v>
       </c>
       <c r="K108" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M108" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="110" customFormat="1" spans="6:13">
@@ -4000,13 +4018,13 @@
         <v>1</v>
       </c>
       <c r="K110" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="L110" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M110" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="111" customFormat="1" spans="6:13">
@@ -4017,13 +4035,13 @@
         <v>1</v>
       </c>
       <c r="K111" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L111" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M111" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112" customFormat="1" spans="6:13">
@@ -4034,13 +4052,13 @@
         <v>1</v>
       </c>
       <c r="K112" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="L112" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M112" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="113" customFormat="1" spans="6:13">
@@ -4051,13 +4069,13 @@
         <v>1</v>
       </c>
       <c r="K113" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="L113" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M113" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="114" customFormat="1" spans="6:13">
@@ -4077,13 +4095,13 @@
         <v>1</v>
       </c>
       <c r="K114" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L114" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M114" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="115" customFormat="1" spans="6:13">
@@ -4094,10 +4112,10 @@
         <v>1</v>
       </c>
       <c r="K115" t="s">
+        <v>148</v>
+      </c>
+      <c r="M115" t="s">
         <v>143</v>
-      </c>
-      <c r="M115" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="116" customFormat="1"/>
@@ -4109,13 +4127,13 @@
         <v>1</v>
       </c>
       <c r="K117" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="L117" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M117" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118" spans="6:13">
@@ -4126,13 +4144,13 @@
         <v>1</v>
       </c>
       <c r="K118" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="L118" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M118" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119" spans="6:13">
@@ -4143,13 +4161,13 @@
         <v>1</v>
       </c>
       <c r="K119" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="L119" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M119" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="120" spans="6:13">
@@ -4160,13 +4178,13 @@
         <v>1</v>
       </c>
       <c r="K120" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="L120" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M120" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="121" spans="6:13">
@@ -4177,13 +4195,13 @@
         <v>1</v>
       </c>
       <c r="K121" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L121" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M121" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="122" spans="6:13">
@@ -4191,13 +4209,13 @@
         <v>1</v>
       </c>
       <c r="K122" t="s">
+        <v>155</v>
+      </c>
+      <c r="L122" t="s">
+        <v>18</v>
+      </c>
+      <c r="M122" t="s">
         <v>150</v>
-      </c>
-      <c r="L122" t="s">
-        <v>13</v>
-      </c>
-      <c r="M122" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="123" spans="6:13">
@@ -4208,13 +4226,13 @@
         <v>1</v>
       </c>
       <c r="K123" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L123" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M123" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="124" spans="6:13">
@@ -4225,13 +4243,13 @@
         <v>1</v>
       </c>
       <c r="K124" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="L124" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M124" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="125" spans="6:17">
@@ -4242,13 +4260,13 @@
         <v>1</v>
       </c>
       <c r="K125" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="L125" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M125" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -4262,13 +4280,13 @@
         <v>1</v>
       </c>
       <c r="K126" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="L126" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M126" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="127" spans="6:13">
@@ -4279,13 +4297,13 @@
         <v>1</v>
       </c>
       <c r="K127" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="L127" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M127" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="128" spans="6:13">
@@ -4296,13 +4314,13 @@
         <v>1</v>
       </c>
       <c r="K128" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="L128" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M128" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="129" spans="6:13">
@@ -4313,13 +4331,13 @@
         <v>1</v>
       </c>
       <c r="K129" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="L129" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M129" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="131" spans="6:13">
@@ -4330,13 +4348,13 @@
         <v>1</v>
       </c>
       <c r="K131" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L131" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M131" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="132" spans="6:13">
@@ -4347,13 +4365,13 @@
         <v>1</v>
       </c>
       <c r="K132" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L132" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M132" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="133" spans="6:13">
@@ -4364,13 +4382,13 @@
         <v>1</v>
       </c>
       <c r="K133" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="L133" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M133" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="134" spans="6:17">
@@ -4381,13 +4399,13 @@
         <v>1</v>
       </c>
       <c r="K134" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L134" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M134" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q134">
         <v>4</v>
@@ -4401,13 +4419,13 @@
         <v>1</v>
       </c>
       <c r="K135" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="L135" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M135" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="136" spans="6:13">
@@ -4418,18 +4436,18 @@
         <v>1</v>
       </c>
       <c r="K136" t="s">
+        <v>169</v>
+      </c>
+      <c r="L136" t="s">
+        <v>18</v>
+      </c>
+      <c r="M136" t="s">
         <v>164</v>
-      </c>
-      <c r="L136" t="s">
-        <v>13</v>
-      </c>
-      <c r="M136" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="137" spans="12:12">
       <c r="L137" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138" spans="6:13">
@@ -4440,13 +4458,13 @@
         <v>1</v>
       </c>
       <c r="K138" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="L138" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M138" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="139" spans="6:13">
@@ -4457,13 +4475,13 @@
         <v>1</v>
       </c>
       <c r="K139" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="L139" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M139" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="140" spans="6:13">
@@ -4474,13 +4492,13 @@
         <v>1</v>
       </c>
       <c r="K140" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="L140" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M140" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="141" spans="6:13">
@@ -4491,13 +4509,13 @@
         <v>1</v>
       </c>
       <c r="K141" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L141" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M141" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="142" spans="6:13">
@@ -4508,13 +4526,13 @@
         <v>1</v>
       </c>
       <c r="K142" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L142" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M142" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="143" spans="6:13">
@@ -4525,13 +4543,13 @@
         <v>1</v>
       </c>
       <c r="K143" t="s">
+        <v>176</v>
+      </c>
+      <c r="L143" t="s">
+        <v>18</v>
+      </c>
+      <c r="M143" t="s">
         <v>171</v>
-      </c>
-      <c r="L143" t="s">
-        <v>13</v>
-      </c>
-      <c r="M143" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="144" spans="6:13">
@@ -4542,18 +4560,18 @@
         <v>1</v>
       </c>
       <c r="K144" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="L144" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M144" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="145" spans="12:12">
       <c r="L145" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146" spans="6:13">
@@ -4564,13 +4582,13 @@
         <v>1</v>
       </c>
       <c r="K146" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="L146" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M146" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="147" spans="6:13">
@@ -4581,13 +4599,13 @@
         <v>1</v>
       </c>
       <c r="K147" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="L147" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M147" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="148" spans="6:13">
@@ -4598,13 +4616,13 @@
         <v>1</v>
       </c>
       <c r="K148" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="L148" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M148" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="149" spans="6:13">
@@ -4615,13 +4633,13 @@
         <v>1</v>
       </c>
       <c r="K149" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L149" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M149" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="150" customFormat="1" spans="6:13">
@@ -4641,13 +4659,13 @@
         <v>1</v>
       </c>
       <c r="K150" t="s">
+        <v>184</v>
+      </c>
+      <c r="L150" t="s">
+        <v>18</v>
+      </c>
+      <c r="M150" t="s">
         <v>179</v>
-      </c>
-      <c r="L150" t="s">
-        <v>13</v>
-      </c>
-      <c r="M150" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="151" customFormat="1" spans="6:13">
@@ -4667,13 +4685,13 @@
         <v>1</v>
       </c>
       <c r="K151" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="L151" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M151" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="152" customFormat="1" spans="6:13">
@@ -4693,13 +4711,13 @@
         <v>1</v>
       </c>
       <c r="K152" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="L152" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M152" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="153" spans="6:13">
@@ -4719,13 +4737,13 @@
         <v>1</v>
       </c>
       <c r="K153" t="s">
+        <v>187</v>
+      </c>
+      <c r="L153" t="s">
+        <v>18</v>
+      </c>
+      <c r="M153" t="s">
         <v>182</v>
-      </c>
-      <c r="L153" t="s">
-        <v>13</v>
-      </c>
-      <c r="M153" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="154" customFormat="1" spans="3:13">
@@ -4733,13 +4751,13 @@
         <v>1</v>
       </c>
       <c r="K154" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="L154" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M154" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="155" customFormat="1" spans="6:13">
@@ -4759,13 +4777,13 @@
         <v>1</v>
       </c>
       <c r="K155" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="L155" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M155" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="156" customFormat="1" spans="6:13">
@@ -4785,13 +4803,13 @@
         <v>1</v>
       </c>
       <c r="K156" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L156" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M156" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="157" customFormat="1" spans="6:13">
@@ -4811,18 +4829,18 @@
         <v>1</v>
       </c>
       <c r="K157" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="L157" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M157" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="158" customFormat="1" spans="12:12">
       <c r="L158" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="159" spans="6:13">
@@ -4833,13 +4851,13 @@
         <v>1</v>
       </c>
       <c r="K159" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="L159" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M159" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="160" spans="6:13">
@@ -4850,13 +4868,13 @@
         <v>1</v>
       </c>
       <c r="K160" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="L160" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M160" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="161" spans="2:14">
@@ -4867,13 +4885,13 @@
         <v>1</v>
       </c>
       <c r="K161" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="L161" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M161" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="N161">
         <v>1</v>
@@ -4887,18 +4905,18 @@
         <v>1</v>
       </c>
       <c r="K162" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="L162" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M162" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="163" spans="12:12">
       <c r="L163" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164" spans="7:13">
@@ -4906,13 +4924,13 @@
         <v>1</v>
       </c>
       <c r="K164" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="L164" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M164" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="165" spans="6:13">
@@ -4920,18 +4938,18 @@
         <v>1</v>
       </c>
       <c r="K165" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="L165" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M165" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="166" spans="12:12">
       <c r="L166" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="167" spans="6:13">
@@ -4942,13 +4960,13 @@
         <v>1</v>
       </c>
       <c r="K167" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="L167" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M167" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="168" spans="6:13">
@@ -4959,13 +4977,13 @@
         <v>1</v>
       </c>
       <c r="K168" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L168" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M168" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="169" spans="6:13">
@@ -4976,13 +4994,13 @@
         <v>1</v>
       </c>
       <c r="K169" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="L169" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M169" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="170" spans="6:13">
@@ -4993,13 +5011,13 @@
         <v>1</v>
       </c>
       <c r="K170" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="L170" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M170" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="171" spans="6:13">
@@ -5010,13 +5028,13 @@
         <v>1</v>
       </c>
       <c r="K171" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="L171" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M171" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="172" spans="6:13">
@@ -5027,13 +5045,13 @@
         <v>1</v>
       </c>
       <c r="K172" t="s">
+        <v>207</v>
+      </c>
+      <c r="L172" t="s">
+        <v>18</v>
+      </c>
+      <c r="M172" t="s">
         <v>202</v>
-      </c>
-      <c r="L172" t="s">
-        <v>13</v>
-      </c>
-      <c r="M172" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="173" spans="6:13">
@@ -5044,13 +5062,13 @@
         <v>1</v>
       </c>
       <c r="K173" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L173" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M173" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="174" spans="6:13">
@@ -5061,10 +5079,10 @@
         <v>1</v>
       </c>
       <c r="K174" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="M174" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="175" spans="6:13">
@@ -5075,10 +5093,10 @@
         <v>1</v>
       </c>
       <c r="K175" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="M175" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="176" spans="6:13">
@@ -5089,15 +5107,15 @@
         <v>1</v>
       </c>
       <c r="K176" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="M176" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="177" spans="13:13">
       <c r="M177" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="178" spans="6:13">
@@ -5108,10 +5126,10 @@
         <v>1</v>
       </c>
       <c r="K178" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="M178" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="179" customFormat="1" spans="6:13">
@@ -5122,10 +5140,10 @@
         <v>1</v>
       </c>
       <c r="K179" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="M179" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="180" customFormat="1" spans="6:13">
@@ -5136,10 +5154,10 @@
         <v>1</v>
       </c>
       <c r="K180" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M180" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="181" customFormat="1" spans="6:13">
@@ -5150,10 +5168,10 @@
         <v>1</v>
       </c>
       <c r="K181" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M181" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="182" customFormat="1" spans="6:13">
@@ -5164,10 +5182,10 @@
         <v>1</v>
       </c>
       <c r="K182" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M182" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="183" customFormat="1" spans="6:13">
@@ -5178,10 +5196,10 @@
         <v>1</v>
       </c>
       <c r="K183" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="M183" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="184" customFormat="1" spans="6:13">
@@ -5192,10 +5210,10 @@
         <v>1</v>
       </c>
       <c r="K184" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M184" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="185" customFormat="1" spans="6:13">
@@ -5206,10 +5224,10 @@
         <v>1</v>
       </c>
       <c r="K185" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M185" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="186" customFormat="1" spans="6:13">
@@ -5220,10 +5238,10 @@
         <v>1</v>
       </c>
       <c r="K186" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="M186" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="187" customFormat="1" spans="6:13">
@@ -5234,10 +5252,10 @@
         <v>1</v>
       </c>
       <c r="K187" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="M187" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="189" customFormat="1" spans="6:13">
@@ -5257,10 +5275,10 @@
         <v>1</v>
       </c>
       <c r="K189" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="M189" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="191" customFormat="1" spans="6:13">
@@ -5280,10 +5298,10 @@
         <v>1</v>
       </c>
       <c r="K191" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="M191" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="193" spans="6:13">
@@ -5303,10 +5321,10 @@
         <v>1</v>
       </c>
       <c r="K193" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="M193" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="195" spans="8:13">
@@ -5320,10 +5338,10 @@
         <v>1</v>
       </c>
       <c r="K195" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="M195" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="197" spans="6:13">
@@ -5343,10 +5361,10 @@
         <v>1</v>
       </c>
       <c r="K197" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="M197" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="198" spans="5:14">
@@ -5369,10 +5387,10 @@
         <v>1</v>
       </c>
       <c r="K198" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="M198" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="N198">
         <v>1</v>
@@ -5395,10 +5413,10 @@
         <v>1</v>
       </c>
       <c r="K199" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M199" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="200" spans="6:13">
@@ -5418,10 +5436,10 @@
         <v>1</v>
       </c>
       <c r="K200" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="M200" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="201" spans="6:13">
@@ -5441,10 +5459,10 @@
         <v>1</v>
       </c>
       <c r="K201" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="M201" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="202" spans="6:13">
@@ -5464,13 +5482,13 @@
         <v>1</v>
       </c>
       <c r="K202" t="s">
+        <v>236</v>
+      </c>
+      <c r="L202" t="s">
+        <v>18</v>
+      </c>
+      <c r="M202" t="s">
         <v>231</v>
-      </c>
-      <c r="L202" t="s">
-        <v>13</v>
-      </c>
-      <c r="M202" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="204" spans="5:15">
@@ -5478,16 +5496,16 @@
         <v>1</v>
       </c>
       <c r="K204" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M204" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="N204">
         <v>2</v>
       </c>
       <c r="O204" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="206" spans="9:11">
@@ -5495,7 +5513,7 @@
         <v>1</v>
       </c>
       <c r="K206" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="208" spans="7:13">
@@ -5503,13 +5521,13 @@
         <v>1</v>
       </c>
       <c r="K208" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L208" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="M208" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="209" spans="7:13">
@@ -5517,13 +5535,13 @@
         <v>1</v>
       </c>
       <c r="K209" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L209" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="M209" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="210" spans="7:13">
@@ -5531,13 +5549,13 @@
         <v>1</v>
       </c>
       <c r="K210" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L210" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="M210" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="211" spans="7:12">
@@ -5545,10 +5563,10 @@
         <v>1</v>
       </c>
       <c r="K211" t="s">
+        <v>246</v>
+      </c>
+      <c r="L211" t="s">
         <v>241</v>
-      </c>
-      <c r="L211" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="212" spans="7:12">
@@ -5556,10 +5574,10 @@
         <v>1</v>
       </c>
       <c r="K212" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="L212" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="213" spans="7:12">
@@ -5567,28 +5585,28 @@
         <v>1</v>
       </c>
       <c r="K213" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="L213" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="214" spans="11:12">
       <c r="K214" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="L214" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="216" spans="11:11">
       <c r="K216" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="217" spans="11:11">
       <c r="K217" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/author0.xlsx
+++ b/author0.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Statistics (2)" sheetId="7" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Statistics (2)'!$A$1:$A$217</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1941,7 +1944,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="N218" sqref="N218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2038,7 +2041,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="6:17">
+    <row r="4" spans="3:17">
+      <c r="C4">
+        <v>1</v>
+      </c>
       <c r="F4">
         <v>1</v>
       </c>
@@ -2056,6 +2062,9 @@
       </c>
       <c r="M4" t="s">
         <v>19</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -3483,6 +3492,7 @@
       <c r="M77" t="s">
         <v>87</v>
       </c>
+      <c r="N77"/>
       <c r="O77" t="s">
         <v>109</v>
       </c>
@@ -3518,7 +3528,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="80" customFormat="1" spans="6:17">
+    <row r="80" customFormat="1" spans="1:17">
+      <c r="A80">
+        <v>1</v>
+      </c>
       <c r="F80">
         <v>1</v>
       </c>
@@ -3531,6 +3544,7 @@
       <c r="M80" t="s">
         <v>87</v>
       </c>
+      <c r="N80"/>
       <c r="Q80">
         <v>6</v>
       </c>
@@ -3976,7 +3990,10 @@
         <v>135</v>
       </c>
     </row>
-    <row r="107" customFormat="1" spans="6:17">
+    <row r="107" customFormat="1" spans="1:17">
+      <c r="A107">
+        <v>1</v>
+      </c>
       <c r="F107">
         <v>1</v>
       </c>
@@ -3992,6 +4009,7 @@
       <c r="M107" t="s">
         <v>135</v>
       </c>
+      <c r="N107"/>
       <c r="Q107">
         <v>1</v>
       </c>
@@ -4118,7 +4136,6 @@
         <v>143</v>
       </c>
     </row>
-    <row r="116" customFormat="1"/>
     <row r="117" spans="6:13">
       <c r="F117">
         <v>1</v>
@@ -4252,7 +4269,10 @@
         <v>150</v>
       </c>
     </row>
-    <row r="125" spans="6:17">
+    <row r="125" spans="1:17">
+      <c r="A125">
+        <v>1</v>
+      </c>
       <c r="F125">
         <v>1</v>
       </c>
@@ -4268,6 +4288,7 @@
       <c r="M125" t="s">
         <v>150</v>
       </c>
+      <c r="N125"/>
       <c r="Q125">
         <v>3</v>
       </c>
@@ -4391,7 +4412,10 @@
         <v>164</v>
       </c>
     </row>
-    <row r="134" spans="6:17">
+    <row r="134" spans="1:17">
+      <c r="A134">
+        <v>1</v>
+      </c>
       <c r="F134">
         <v>1</v>
       </c>
@@ -4407,6 +4431,7 @@
       <c r="M134" t="s">
         <v>164</v>
       </c>
+      <c r="N134"/>
       <c r="Q134">
         <v>4</v>
       </c>
@@ -5610,6 +5635,9 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A217">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/author0.xlsx
+++ b/author0.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Statistics (2)" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Statistics (2)'!$A$1:$A$217</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Statistics (2)'!$A$1:$E$217</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1944,7 +1944,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N218" sqref="N218"/>
+      <selection pane="bottomLeft" activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3492,7 +3492,6 @@
       <c r="M77" t="s">
         <v>87</v>
       </c>
-      <c r="N77"/>
       <c r="O77" t="s">
         <v>109</v>
       </c>
@@ -3528,10 +3527,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="80" customFormat="1" spans="1:17">
-      <c r="A80">
-        <v>1</v>
-      </c>
+    <row r="80" customFormat="1" spans="6:17">
       <c r="F80">
         <v>1</v>
       </c>
@@ -3544,7 +3540,6 @@
       <c r="M80" t="s">
         <v>87</v>
       </c>
-      <c r="N80"/>
       <c r="Q80">
         <v>6</v>
       </c>
@@ -3990,10 +3985,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="107" customFormat="1" spans="1:17">
-      <c r="A107">
-        <v>1</v>
-      </c>
+    <row r="107" customFormat="1" spans="6:17">
       <c r="F107">
         <v>1</v>
       </c>
@@ -4009,7 +4001,6 @@
       <c r="M107" t="s">
         <v>135</v>
       </c>
-      <c r="N107"/>
       <c r="Q107">
         <v>1</v>
       </c>
@@ -4269,10 +4260,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="125" spans="1:17">
-      <c r="A125">
-        <v>1</v>
-      </c>
+    <row r="125" spans="6:17">
       <c r="F125">
         <v>1</v>
       </c>
@@ -4288,7 +4276,6 @@
       <c r="M125" t="s">
         <v>150</v>
       </c>
-      <c r="N125"/>
       <c r="Q125">
         <v>3</v>
       </c>
@@ -4412,10 +4399,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="134" spans="1:17">
-      <c r="A134">
-        <v>1</v>
-      </c>
+    <row r="134" spans="6:17">
       <c r="F134">
         <v>1</v>
       </c>
@@ -4431,7 +4415,6 @@
       <c r="M134" t="s">
         <v>164</v>
       </c>
-      <c r="N134"/>
       <c r="Q134">
         <v>4</v>
       </c>
@@ -5635,7 +5618,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A217">
+  <autoFilter ref="A1:E217">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/author0.xlsx
+++ b/author0.xlsx
@@ -1944,7 +1944,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A80" sqref="A80"/>
+      <selection pane="bottomLeft" activeCell="O219" sqref="O219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2041,10 +2041,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="3:17">
-      <c r="C4">
-        <v>1</v>
-      </c>
+    <row r="4" spans="6:17">
       <c r="F4">
         <v>1</v>
       </c>
@@ -2063,9 +2060,6 @@
       <c r="M4" t="s">
         <v>19</v>
       </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
       <c r="Q4">
         <v>2</v>
       </c>
@@ -2285,7 +2279,7 @@
         <v>34</v>
       </c>
       <c r="N14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O14" t="s">
         <v>35</v>
@@ -3492,6 +3486,9 @@
       <c r="M77" t="s">
         <v>87</v>
       </c>
+      <c r="N77">
+        <v>2</v>
+      </c>
       <c r="O77" t="s">
         <v>109</v>
       </c>
@@ -4754,10 +4751,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="154" customFormat="1" spans="3:13">
-      <c r="C154">
-        <v>1</v>
-      </c>
+    <row r="154" customFormat="1" spans="11:13">
       <c r="K154" t="s">
         <v>188</v>
       </c>

--- a/author0.xlsx
+++ b/author0.xlsx
@@ -1942,9 +1942,9 @@
   <dimension ref="A1:R217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O219" sqref="O219"/>
+      <selection pane="bottomLeft" activeCell="N78" sqref="N78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3487,7 +3487,7 @@
         <v>87</v>
       </c>
       <c r="N77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O77" t="s">
         <v>109</v>

--- a/author0.xlsx
+++ b/author0.xlsx
@@ -1942,9 +1942,9 @@
   <dimension ref="A1:R217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N78" sqref="N78"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2250,10 +2250,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
-      <c r="B14">
-        <v>1</v>
-      </c>
+    <row r="14" spans="4:15">
       <c r="D14">
         <v>1</v>
       </c>
@@ -2279,7 +2276,7 @@
         <v>34</v>
       </c>
       <c r="N14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O14" t="s">
         <v>35</v>

--- a/author0.xlsx
+++ b/author0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23310" windowHeight="12255"/>
+    <workbookView windowWidth="18345" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics (2)" sheetId="7" r:id="rId1"/>
@@ -1942,9 +1942,9 @@
   <dimension ref="A1:R217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="N77" sqref="N77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3484,7 +3484,7 @@
         <v>87</v>
       </c>
       <c r="N77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O77" t="s">
         <v>109</v>
